--- a/references/Fairness-measures-overview.xlsx
+++ b/references/Fairness-measures-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\DTU\Master_thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEDA7A7-AA1D-4778-9CD7-E896E5A194CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6554FE-E471-422C-AFE2-17B912956ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FA296D-0F8B-4047-B11B-3223361D1B7B}"/>
   </bookViews>
@@ -312,32 +312,32 @@
     <t>Y ⊥ A | C</t>
   </si>
   <si>
-    <t xml:space="preserve">Equal PPV,NPV,FDR and FOR in both groups. 
+    <t>Combines FPR-balance and FNR-balance i.e. both groups should have equal FPR, FNR, TPR and TNR.</t>
+  </si>
+  <si>
+    <t>P_1(C | Y = 1) = P_2(C | Y = 1)</t>
+  </si>
+  <si>
+    <t>P_1(C | Y = 0) = P_2(C | Y = 0)</t>
+  </si>
+  <si>
+    <t>The probability for a subject in the negative class to have a positive predictive value (classified as positive) should be equal across groups. (Equal FPR, TNR)</t>
+  </si>
+  <si>
+    <t>The probability for a subject in the positive class to have a negative predictive value (classified as negative) should be equal across groups. (Equal FNR, TPR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy Parity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected and unprotected group should have equal prediction accuracy. This definition assumes that true negatives are as desireable as true positives. </t>
+  </si>
+  <si>
+    <t>P(Y=C, A=1) = P(Y=C, A=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal PPV, NPV, FDR and FOR in both groups. 
 I.e. the probability of subjects with positive preditive value to truly belong to the positive class and the probability of subject with negative predictive value to truly belong to the negative class are equal across groups. </t>
-  </si>
-  <si>
-    <t>Combines FPR-balance and FNR-balance i.e. both groups should have equal FPR, FNR, TPR and TNR.</t>
-  </si>
-  <si>
-    <t>P_1(C | Y = 1) = P_2(C | Y = 1)</t>
-  </si>
-  <si>
-    <t>P_1(C | Y = 0) = P_2(C | Y = 0)</t>
-  </si>
-  <si>
-    <t>The probability for a subject in the negative class to have a positive predictive value (classified as positive) should be equal across groups. (Equal FPR, TNR)</t>
-  </si>
-  <si>
-    <t>The probability for a subject in the positive class to have a negative predictive value (classified as negative) should be equal across groups. (Equal FNR, TPR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accuracy Parity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protected and unprotected group should have equal prediction accuracy. This definition assumes that true negatives are as desireable as true positives. </t>
-  </si>
-  <si>
-    <t>P(Y=C, A=1) = P(Y=C, A=2)</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D9494E-D880-449E-978D-3F7FB5F6B341}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>23</v>
@@ -972,7 +972,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>23</v>
@@ -989,10 +989,10 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>39</v>
@@ -1042,13 +1042,13 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>

--- a/references/Fairness-measures-overview.xlsx
+++ b/references/Fairness-measures-overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\DTU\Master_thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6554FE-E471-422C-AFE2-17B912956ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED9B603-3C9C-43B3-9B2C-B3530DF1027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FA296D-0F8B-4047-B11B-3223361D1B7B}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C5FA296D-0F8B-4047-B11B-3223361D1B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,6 @@
     <t>Equalized Odds</t>
   </si>
   <si>
-    <t>* Seperation
-* Positive rate parity
-* Conditional procedure accuracy equality
-*Disparate mistreatment</t>
-  </si>
-  <si>
     <t>* Equal Opportunity</t>
   </si>
   <si>
@@ -338,6 +332,12 @@
   <si>
     <t xml:space="preserve">Equal PPV, NPV, FDR and FOR in both groups. 
 I.e. the probability of subjects with positive preditive value to truly belong to the positive class and the probability of subject with negative predictive value to truly belong to the negative class are equal across groups. </t>
+  </si>
+  <si>
+    <t>* Separation
+* Positive rate parity
+* Conditional procedure accuracy equality
+*Disparate mistreatment</t>
   </si>
 </sst>
 </file>
@@ -757,28 +757,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D9494E-D880-449E-978D-3F7FB5F6B341}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -820,7 +820,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,18 +846,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -880,10 +880,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -902,21 +902,21 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>23</v>
@@ -925,15 +925,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -948,7 +948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -958,21 +958,21 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>23</v>
@@ -981,21 +981,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1004,21 +1004,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -1027,7 +1027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1037,18 +1037,18 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1057,15 +1057,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
